--- a/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_Loan_Portfolio_Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\THC\R0702\Web ReportTemplates\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88854BB9-A000-47A5-AD2D-DD9037ABB920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C67637-B8F5-4726-8E18-7824679CE5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14400" windowHeight="10755" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortgage Performance" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: December, 2019           Evaluation Date: December 31, 2019</t>
   </si>
   <si>
-    <t>Printed on: 03/02/2020 1:54:38PM</t>
+    <t>Printed on: 04/13/2020 2:00:13PM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -246,7 +246,8 @@
 _x000D_
 Calculation Setting:_x000D_
 Valuation Paths: 1          Simulation Paths: 1          Valuation Method: LPS          OAS Type: TSY          Price Model: HoLeeG1F_x000D_
-Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0</t>
+Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0_x000D_
+AllowNegative: Allow negative on Lattice</t>
   </si>
   <si>
     <t>Loans secured by real estate -&gt; Construction, land development, and other land loans</t>
@@ -1038,7 +1039,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-407F-4339-AE6C-DF7FA8C53EB2}"/>
+                <c16:uniqueId val="{00000000-9C66-44B6-9E3B-71AA2F2FCE71}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1052,7 +1053,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-407F-4339-AE6C-DF7FA8C53EB2}"/>
+                <c16:uniqueId val="{00000001-9C66-44B6-9E3B-71AA2F2FCE71}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1066,7 +1067,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-407F-4339-AE6C-DF7FA8C53EB2}"/>
+                <c16:uniqueId val="{00000002-9C66-44B6-9E3B-71AA2F2FCE71}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1080,7 +1081,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-407F-4339-AE6C-DF7FA8C53EB2}"/>
+                <c16:uniqueId val="{00000003-9C66-44B6-9E3B-71AA2F2FCE71}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1118,7 +1119,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-407F-4339-AE6C-DF7FA8C53EB2}"/>
+                  <c16:uniqueId val="{00000002-9C66-44B6-9E3B-71AA2F2FCE71}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1219,7 +1220,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-407F-4339-AE6C-DF7FA8C53EB2}"/>
+              <c16:uniqueId val="{00000004-9C66-44B6-9E3B-71AA2F2FCE71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1322,7 +1323,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-F89B-45B4-AC85-FF34FC7FBF73}"/>
+                <c16:uniqueId val="{00000000-6E70-4EB2-B262-C968BB2DC44B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1336,7 +1337,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F89B-45B4-AC85-FF34FC7FBF73}"/>
+                <c16:uniqueId val="{00000001-6E70-4EB2-B262-C968BB2DC44B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1350,7 +1351,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F89B-45B4-AC85-FF34FC7FBF73}"/>
+                <c16:uniqueId val="{00000002-6E70-4EB2-B262-C968BB2DC44B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1364,7 +1365,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F89B-45B4-AC85-FF34FC7FBF73}"/>
+                <c16:uniqueId val="{00000003-6E70-4EB2-B262-C968BB2DC44B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1430,7 +1431,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F89B-45B4-AC85-FF34FC7FBF73}"/>
+              <c16:uniqueId val="{00000004-6E70-4EB2-B262-C968BB2DC44B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
